--- a/test_scripts/edge/TS005_testscript.xlsx
+++ b/test_scripts/edge/TS005_testscript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFEE341-496D-406B-8993-08A6EED472AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585C1C0B-D0EA-4B3A-B9DE-3C1347F92149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
+    <workbookView xWindow="3624" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>tc_id</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
     <t>tc_desc</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>WhatisthisstepWhatisthisstepWhatisthisstepWhatisthisstepWhatisthisstepWhatisthisstepWhatisthisstepWhatisthisstep</t>
+  </si>
+  <si>
+    <t>TS005</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,16 +473,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -490,26 +490,26 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -518,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3"/>
     </row>
